--- a/biology/Zoologie/Hippotion_echeclus/Hippotion_echeclus.xlsx
+++ b/biology/Zoologie/Hippotion_echeclus/Hippotion_echeclus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hippotion echeclus est une espèce de lépidoptères de la famille des Sphingidae, de la sous-famille des Macroglossinae, de la tribu des Macroglossini et du genre Hippotion. 
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L' envergure varie de 64 à 84 mm.
 			Avers de la femelle (coll.MHNT)
@@ -544,7 +558,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce est connue dans le sud et l'est de l'Inde, en Birmanie, en Thaïlande, dans le sud-est de la Chine, au sud du Japon (archipel des Ryukyu), en Malaisie péninsulaire, Sarawak, Sabah, en Indonésie (Sumatra, Java, Kalimantan, Lombok, Sumba) et aux Philippines (Luzon, Bohol).
 </t>
@@ -575,9 +591,11 @@
           <t>Biologie et écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Plantes-hôtes pour la chenille : Sesamum indicum et Monochoria hastaefolia en Inde et sur Eichhornia crassipes en Thaïlande[1].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Plantes-hôtes pour la chenille : Sesamum indicum et Monochoria hastaefolia en Inde et sur Eichhornia crassipes en Thaïlande.</t>
         </is>
       </c>
     </row>
@@ -605,11 +623,48 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>L'espèce Hippotion echeclus a été décrite par le naturaliste français Jean-Baptiste Alphonse Dechauffour de Boisduval en 1832, sous le nom initial de Choerocampa echeclus[2].
-Synonymie
-Choerocampa echeclus Boisduval, 1875protonyme
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Hippotion echeclus a été décrite par le naturaliste français Jean-Baptiste Alphonse Dechauffour de Boisduval en 1832, sous le nom initial de Choerocampa echeclus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hippotion_echeclus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hippotion_echeclus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Choerocampa echeclus Boisduval, 1875protonyme
 Chaerocampa elegans Butler, 1875</t>
         </is>
       </c>
